--- a/public/gach-sefid-form.xlsx
+++ b/public/gach-sefid-form.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ردیف</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>کد ملی</t>
+  </si>
+  <si>
+    <t>0018914373</t>
+  </si>
+  <si>
+    <t>0018914374</t>
+  </si>
+  <si>
+    <t>0018914375</t>
+  </si>
+  <si>
+    <t>0018914376</t>
   </si>
 </sst>
 </file>
@@ -506,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,11 +534,11 @@
     <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="6" width="31.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -539,8 +554,11 @@
       <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -556,8 +574,11 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -573,8 +594,11 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -590,8 +614,11 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -606,6 +633,9 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/gach-sefid-form.xlsx
+++ b/public/gach-sefid-form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8520"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>ردیف</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>0018914376</t>
+  </si>
+  <si>
+    <t>جنسیت (خانم: 0 - آقا: 1)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -277,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +544,11 @@
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="32" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,8 +567,11 @@
       <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -577,8 +590,11 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -597,8 +613,11 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -617,8 +636,11 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -636,6 +658,9 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
